--- a/biology/Zoologie/Gallinule_aborigène/Gallinule_aborigène.xlsx
+++ b/biology/Zoologie/Gallinule_aborigène/Gallinule_aborigène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gallinule_aborig%C3%A8ne</t>
+          <t>Gallinule_aborigène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tribonyx ventralis
 La Gallinule aborigène (Tribonyx ventralis, syn. Gallinula ventralis) est une espèce d'oiseaux de la famille des Rallidae endémique de l'Australie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gallinule_aborig%C3%A8ne</t>
+          <t>Gallinule_aborigène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure 34 cm pour un poids de 400 g. C'est un oiseau trapu, une sorte de poule d'eau avec un plumage foncé, presque noir sur le dos, le ventre a des reflets verts bleus, elle a quelques plumes blanches sur les côtés; la queue redressée est noire; les pattes palmées sont rouges; le bec est vert avec une tache rouge sur la face inférieure.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gallinule_aborig%C3%A8ne</t>
+          <t>Gallinule_aborigène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau endémique de l'Australie que l'on trouve accidentellement en Nouvelle-Zélande.
 C'est un oiseau mobile qui se déplace vers tous les points d'eau et zones humides des régions sèches, qu'ils soient d'eau douce ou d'eau saumâtre.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gallinule_aborig%C3%A8ne</t>
+          <t>Gallinule_aborigène</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se nourrit de graines, de végétaux et d'insectes. Elle peut faire des dégâts aux récoltes.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gallinule_aborig%C3%A8ne</t>
+          <t>Gallinule_aborigène</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit généralement en petits groupes, mais un nouveau point d'eau peut en attirer un grand nombre qui disparaîtra dès que le point sera à sec.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gallinule_aborig%C3%A8ne</t>
+          <t>Gallinule_aborigène</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se reproduit dès que les conditions sont favorables. Elle niche dans les marais où elle pond cinq à sept œufs qu'elle couve vingt jours.
 </t>
